--- a/F1_Data.xlsx
+++ b/F1_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishi_kat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D70AC3-3820-B14A-B381-F6D2715C14FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B60D2-A23D-C741-903B-36BB6026A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{5AD76AA6-F00F-4C6A-9213-C303910ADAA8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5888" uniqueCount="2691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5871" uniqueCount="2674">
   <si>
     <t>BRA</t>
   </si>
@@ -8231,57 +8231,6 @@
   </si>
   <si>
     <t>Height</t>
-  </si>
-  <si>
-    <t>23y04m11d</t>
-  </si>
-  <si>
-    <t>23y09m26d</t>
-  </si>
-  <si>
-    <t>25y10m10d</t>
-  </si>
-  <si>
-    <t>31y05m00d</t>
-  </si>
-  <si>
-    <t>29y08m29d</t>
-  </si>
-  <si>
-    <t>28y00m04d</t>
-  </si>
-  <si>
-    <t>24y01m27d</t>
-  </si>
-  <si>
-    <t>30y01m04d</t>
-  </si>
-  <si>
-    <t>26y06m17d</t>
-  </si>
-  <si>
-    <t>30y07m12d</t>
-  </si>
-  <si>
-    <t>24y02m12d</t>
-  </si>
-  <si>
-    <t>28y07m09d</t>
-  </si>
-  <si>
-    <t>36y00m26d</t>
-  </si>
-  <si>
-    <t>39y00m08d</t>
-  </si>
-  <si>
-    <t>26y06m16d</t>
-  </si>
-  <si>
-    <t>30y02m27d</t>
-  </si>
-  <si>
-    <t>29y01m25d</t>
   </si>
 </sst>
 </file>
@@ -9501,7 +9450,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9619,8 +9568,8 @@
       <c r="N2">
         <v>16440</v>
       </c>
-      <c r="O2" t="s">
-        <v>2674</v>
+      <c r="O2">
+        <v>23.37</v>
       </c>
       <c r="P2" s="1">
         <v>4</v>
@@ -9672,8 +9621,8 @@
       <c r="K3">
         <v>196</v>
       </c>
-      <c r="O3" t="s">
-        <v>2675</v>
+      <c r="O3">
+        <v>23.82</v>
       </c>
       <c r="P3" s="1">
         <v>6</v>
@@ -9734,8 +9683,8 @@
       <c r="N4">
         <v>16703</v>
       </c>
-      <c r="O4" t="s">
-        <v>2676</v>
+      <c r="O4">
+        <v>25.84</v>
       </c>
       <c r="P4" s="1">
         <v>5</v>
@@ -9790,8 +9739,8 @@
       <c r="N5">
         <v>11160</v>
       </c>
-      <c r="O5" t="s">
-        <v>2677</v>
+      <c r="O5">
+        <v>31.17</v>
       </c>
       <c r="P5" s="1">
         <v>3</v>
@@ -9846,8 +9795,8 @@
       <c r="N6">
         <v>16243</v>
       </c>
-      <c r="O6" t="s">
-        <v>2678</v>
+      <c r="O6">
+        <v>29.91</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -9896,8 +9845,8 @@
       <c r="N7">
         <v>18675</v>
       </c>
-      <c r="O7" t="s">
-        <v>2679</v>
+      <c r="O7">
+        <v>28</v>
       </c>
       <c r="P7" s="1">
         <v>4</v>
@@ -9943,8 +9892,8 @@
       <c r="N8">
         <v>20094</v>
       </c>
-      <c r="O8" t="s">
-        <v>2680</v>
+      <c r="O8">
+        <v>24.08</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -9993,8 +9942,8 @@
       <c r="N9">
         <v>7720</v>
       </c>
-      <c r="O9" t="s">
-        <v>2681</v>
+      <c r="O9">
+        <v>30.08</v>
       </c>
       <c r="P9" s="1">
         <v>2</v>
@@ -10013,8 +9962,8 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
-        <v>2682</v>
+      <c r="O10">
+        <v>26.56</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -10063,8 +10012,8 @@
       <c r="N11">
         <v>10540</v>
       </c>
-      <c r="O11" t="s">
-        <v>2683</v>
+      <c r="O11">
+        <v>30.61</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -10098,8 +10047,8 @@
       <c r="K12">
         <v>92</v>
       </c>
-      <c r="O12" t="s">
-        <v>2684</v>
+      <c r="O12">
+        <v>24.17</v>
       </c>
       <c r="P12" s="1">
         <v>3</v>
@@ -10136,8 +10085,8 @@
       <c r="K13">
         <v>80</v>
       </c>
-      <c r="O13" t="s">
-        <v>2685</v>
+      <c r="O13">
+        <v>28.64</v>
       </c>
       <c r="P13" s="1">
         <v>4</v>
@@ -10156,8 +10105,8 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
-        <v>2686</v>
+      <c r="O14">
+        <v>36.020000000000003</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -10206,8 +10155,8 @@
       <c r="N15">
         <v>8570</v>
       </c>
-      <c r="O15" t="s">
-        <v>2687</v>
+      <c r="O15">
+        <v>39.01</v>
       </c>
       <c r="P15" s="1">
         <v>4</v>
@@ -10262,8 +10211,8 @@
       <c r="N16">
         <v>8217</v>
       </c>
-      <c r="O16" t="s">
-        <v>2688</v>
+      <c r="O16">
+        <v>26.55</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
@@ -10312,8 +10261,8 @@
       <c r="N17">
         <v>5225</v>
       </c>
-      <c r="O17" t="s">
-        <v>2689</v>
+      <c r="O17">
+        <v>30.09</v>
       </c>
       <c r="P17" s="1">
         <v>4</v>
@@ -10329,8 +10278,8 @@
       <c r="C18" t="s">
         <v>216</v>
       </c>
-      <c r="O18" t="s">
-        <v>2690</v>
+      <c r="O18">
+        <v>29.08</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
